--- a/Mail_Setting/Mail_Setting.xlsx
+++ b/Mail_Setting/Mail_Setting.xlsx
@@ -54,12 +54,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gaohuiliang@yaskawa.com.cn
-gaohuiliang@yaskawa.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MB52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhy_kim@yaskawa.com.cn
+yjs5101@yaskawa.com.cn
+sydzhoufang@yaskawa.com.cn
+shijinhua@yaskawa.com.cn
+upsky@yaskawa.com.cn
+tangzhiqiang@yaskawa.com.cn
+xuyanhong@yaskawa.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,16 +416,17 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -443,18 +449,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>

--- a/Mail_Setting/Mail_Setting.xlsx
+++ b/Mail_Setting/Mail_Setting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_Demo\Mail_Setting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demo_backup\SAP_RPA_20190822\Mail_Setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,16 @@
 upsky@yaskawa.com.cn
 tangzhiqiang@yaskawa.com.cn
 xuyanhong@yaskawa.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金海燕
+印静霜
+周芳
+施金花
+张琛珅
+唐志强
+徐燕红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +426,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,7 +473,9 @@
         <v>8</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Mail_Setting/Mail_Setting.xlsx
+++ b/Mail_Setting/Mail_Setting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Demo_backup\SAP_RPA_20190822\Mail_Setting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA_Demo\Mail_Setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,20 @@
   </si>
   <si>
     <t>MB52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upsky@yaskawa.com.cn
+tangzhiqiang@yaskawa.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张琛珅
+唐志强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Err01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,8 +76,6 @@
 yjs5101@yaskawa.com.cn
 sydzhoufang@yaskawa.com.cn
 shijinhua@yaskawa.com.cn
-upsky@yaskawa.com.cn
-tangzhiqiang@yaskawa.com.cn
 xuyanhong@yaskawa.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,8 +84,6 @@
 印静霜
 周芳
 施金花
-张琛珅
-唐志强
 徐燕红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,8 +156,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3"/>
   <tableColumns count="6">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="RPA機能ID"/>
@@ -423,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,7 +469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,10 +480,27 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Mail_Setting/Mail_Setting.xlsx
+++ b/Mail_Setting/Mail_Setting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,16 +75,19 @@
     <t>jhy_kim@yaskawa.com.cn
 yjs5101@yaskawa.com.cn
 sydzhoufang@yaskawa.com.cn
-shijinhua@yaskawa.com.cn
-xuyanhong@yaskawa.com.cn</t>
+shijinhua@yaskawa.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金海燕
 印静霜
 周芳
-施金花
-徐燕红</t>
+施金花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuyanhong@yaskawa.com.cn
+gaohuiliang@yaskawa.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +439,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -469,15 +472,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>

--- a/Mail_Setting/Mail_Setting.xlsx
+++ b/Mail_Setting/Mail_Setting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,7 +87,32 @@
   </si>
   <si>
     <t>xuyanhong@yaskawa.com.cn
-gaohuiliang@yaskawa.com.cn</t>
+gaohuiliang@yaskawa.com.cn
+upsky@yaskawa.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mast01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuyanhong@yaskawa.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变频器每日在库管理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAP各类残管理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,15 +184,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G4" totalsRowShown="0">
+  <autoFilter ref="A1:G4"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="RPA機能ID"/>
     <tableColumn id="3" name="TO"/>
     <tableColumn id="4" name="CC"/>
     <tableColumn id="5" name="BCC"/>
     <tableColumn id="6" name="備考"/>
+    <tableColumn id="7" name="File_Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -436,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -450,9 +476,10 @@
     <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +498,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -489,8 +519,11 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -505,6 +538,29 @@
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Mail_Setting/Mail_Setting.xlsx
+++ b/Mail_Setting/Mail_Setting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>gaohuiliang@yaskawa.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MB52</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,13 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金海燕
-印静霜
-周芳
-施金花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xuyanhong@yaskawa.com.cn
 gaohuiliang@yaskawa.com.cn
 upsky@yaskawa.com.cn</t>
@@ -100,19 +89,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变频器每日在库管理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SAP各类残管理表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>File_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金海燕
+印静霜
+周  芳
+施金花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金海燕
+印静霜
+周  芳
+施金花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seigo.masuno@yaskawa.com.cn
+jhy_kim@yaskawa.com.cn
+yjs5101@yaskawa.com.cn
+sydzhoufang@yaskawa.com.cn
+shijinhua@yaskawa.com.cn
+xuyanhong@yaskawa.com.cn
+chenqing@yaskawa.com.cn
+shenshanfeng@yaskawa.com.cn
+k_kawano@yaskawa.com.cn
+ymiyahar@yaskawa.com.cn
+caobin@yaskawa.com.cn
+linxu@yaskawa.com.cn
+zouxiaoyan@yaskawa.com.cn
+huchenfei@yaskawa.com.cn
+zsx714@yaskawa.com.cn
+m_hachino@yaskawa.com.cn
+qqzh@yaskawa.com.cn
+jf_shen@yaskawa.com.cn
+feisiwen@yaskawa.com.cn
+zhouluyi@yaskawa.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB52（库存）
+COOIS（生产订单）
+ZSDR255（受注）
+ZSDR260（发货）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RPA ERROR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压&amp;大金变频器SYD在库台数管理表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压&amp;大金变频器SYD在库台数管理表
+（测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">枡  野
+金海燕
+印静霜
+周  芳
+施金花
+徐燕红
+陈  晴
+沈单峰
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +217,21 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -159,12 +258,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -184,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="RPA機能ID"/>
@@ -462,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,7 +601,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -507,20 +609,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -528,19 +628,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -548,19 +648,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="270" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Mail_Setting/Mail_Setting.xlsx
+++ b/Mail_Setting/Mail_Setting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,22 @@
   </si>
   <si>
     <t>XXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CK01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaohuiliang@yaskawa.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高惠良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库转储单自动化操作异常邮件地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,8 +302,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G5" totalsRowShown="0">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G6" totalsRowShown="0">
+  <autoFilter ref="A1:G6"/>
   <tableColumns count="7">
     <tableColumn id="1" name="No."/>
     <tableColumn id="2" name="RPA機能ID"/>
@@ -564,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,6 +697,23 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
